--- a/Vorlagen/Soll-Ist-Zeitplan.xlsx
+++ b/Vorlagen/Soll-Ist-Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coopgruppe-my.sharepoint.com/personal/elias_mattern_coop_ch/Documents/IPA/IPA/Vorlagen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="856" documentId="11_AD4DB114E441178AC67DF4913691E8FE683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8D4278E-FF63-4B58-AB71-0C926FCB3BC4}"/>
+  <xr:revisionPtr revIDLastSave="857" documentId="11_AD4DB114E441178AC67DF4913691E8FE683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{071B2DDA-FC56-420D-BAEA-A2A7FC084974}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="150" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>Tag 10 30.03.2023</t>
   </si>
   <si>
-    <t>Dokumentaion schreiben</t>
-  </si>
-  <si>
     <t>Nummer</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>Testen</t>
+  </si>
+  <si>
+    <t>Dokumentation schreiben</t>
   </si>
 </sst>
 </file>
@@ -718,18 +718,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -747,12 +753,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:B42"/>
+      <selection activeCell="B36" sqref="B36:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,89 +1059,89 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
-      <c r="B1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="63" t="s">
+      <c r="B1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="59" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="59" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="59" t="s">
+      <c r="J1" s="62"/>
+      <c r="K1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="60"/>
-      <c r="M1" s="59" t="s">
+      <c r="L1" s="62"/>
+      <c r="M1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="60"/>
-      <c r="O1" s="59" t="s">
+      <c r="N1" s="62"/>
+      <c r="O1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="59" t="s">
+      <c r="P1" s="62"/>
+      <c r="Q1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="60"/>
-      <c r="S1" s="59" t="s">
+      <c r="R1" s="62"/>
+      <c r="S1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="60"/>
-      <c r="U1" s="59" t="s">
+      <c r="T1" s="62"/>
+      <c r="U1" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="60"/>
-      <c r="W1" s="59" t="s">
+      <c r="V1" s="62"/>
+      <c r="W1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="60"/>
+      <c r="X1" s="62"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="62"/>
+        <v>20</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="64"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1207,8 +1207,8 @@
       <c r="A4" s="57">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>25</v>
+      <c r="B4" s="59" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="23">
         <f t="shared" ref="C4:C15" si="0">SUM(E4:X4)</f>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="58"/>
-      <c r="B5" s="56"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1275,8 +1275,8 @@
       <c r="A6" s="57">
         <v>1.2</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>23</v>
+      <c r="B6" s="59" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="23">
         <f t="shared" si="0"/>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58"/>
-      <c r="B7" s="56"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1345,8 +1345,8 @@
       <c r="A8" s="57">
         <v>1.3</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>24</v>
+      <c r="B8" s="59" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="23">
         <f t="shared" si="0"/>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="58"/>
-      <c r="B9" s="56"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1413,8 +1413,8 @@
       <c r="A10" s="57">
         <v>1.4</v>
       </c>
-      <c r="B10" s="55" t="s">
-        <v>26</v>
+      <c r="B10" s="59" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="23">
         <f t="shared" si="0"/>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
-      <c r="B11" s="56"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1483,8 +1483,8 @@
       <c r="A12" s="57">
         <v>1.5</v>
       </c>
-      <c r="B12" s="55" t="s">
-        <v>27</v>
+      <c r="B12" s="59" t="s">
+        <v>26</v>
       </c>
       <c r="C12" s="23">
         <f t="shared" si="0"/>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
-      <c r="B13" s="56"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1551,8 +1551,8 @@
       <c r="A14" s="57">
         <v>1.6</v>
       </c>
-      <c r="B14" s="55" t="s">
-        <v>33</v>
+      <c r="B14" s="59" t="s">
+        <v>32</v>
       </c>
       <c r="C14" s="23">
         <f t="shared" si="0"/>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
-      <c r="B15" s="56"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1619,8 +1619,8 @@
       <c r="A16" s="57">
         <v>1.7</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>35</v>
+      <c r="B16" s="59" t="s">
+        <v>34</v>
       </c>
       <c r="C16" s="23">
         <f t="shared" ref="C16:C17" si="1">SUM(E16:X16)</f>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
-      <c r="B17" s="56"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1720,8 +1720,8 @@
       <c r="A19" s="57">
         <v>2.1</v>
       </c>
-      <c r="B19" s="55" t="s">
-        <v>30</v>
+      <c r="B19" s="59" t="s">
+        <v>29</v>
       </c>
       <c r="C19" s="23">
         <f t="shared" ref="C19:C28" si="2">SUM(E19:X19)</f>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58"/>
-      <c r="B20" s="56"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1788,8 +1788,8 @@
       <c r="A21" s="57">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B21" s="55" t="s">
-        <v>24</v>
+      <c r="B21" s="59" t="s">
+        <v>23</v>
       </c>
       <c r="C21" s="23">
         <f t="shared" si="2"/>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="58"/>
-      <c r="B22" s="56"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1856,8 +1856,8 @@
       <c r="A23" s="57">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B23" s="55" t="s">
-        <v>28</v>
+      <c r="B23" s="59" t="s">
+        <v>27</v>
       </c>
       <c r="C23" s="23">
         <f t="shared" si="2"/>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="58"/>
-      <c r="B24" s="56"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1924,8 +1924,8 @@
       <c r="A25" s="57">
         <v>2.4</v>
       </c>
-      <c r="B25" s="55" t="s">
-        <v>29</v>
+      <c r="B25" s="59" t="s">
+        <v>28</v>
       </c>
       <c r="C25" s="23">
         <f t="shared" si="2"/>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="58"/>
-      <c r="B26" s="56"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1992,8 +1992,8 @@
       <c r="A27" s="57">
         <v>2.5</v>
       </c>
-      <c r="B27" s="55" t="s">
-        <v>34</v>
+      <c r="B27" s="59" t="s">
+        <v>33</v>
       </c>
       <c r="C27" s="23">
         <f t="shared" si="2"/>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
-      <c r="B28" s="56"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2060,8 +2060,8 @@
       <c r="A29" s="57">
         <v>2.6</v>
       </c>
-      <c r="B29" s="55" t="s">
-        <v>35</v>
+      <c r="B29" s="59" t="s">
+        <v>34</v>
       </c>
       <c r="C29" s="23">
         <f t="shared" ref="C29:C30" si="3">SUM(E29:X29)</f>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="58"/>
-      <c r="B30" s="56"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>2.7</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="41">
         <f>SUM(C20,C22,C24,C26,C28,C30)</f>
@@ -2158,11 +2158,11 @@
       <c r="X31" s="39"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="55">
+      <c r="A32" s="59">
         <v>3.1</v>
       </c>
-      <c r="B32" s="55" t="s">
-        <v>30</v>
+      <c r="B32" s="59" t="s">
+        <v>29</v>
       </c>
       <c r="C32" s="23">
         <f t="shared" ref="C32:C37" si="4">SUM(E32:X32)</f>
@@ -2195,8 +2195,8 @@
       <c r="X32" s="9"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2226,11 +2226,11 @@
       <c r="X33" s="16"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="55">
+      <c r="A34" s="59">
         <v>3.2</v>
       </c>
-      <c r="B34" s="55" t="s">
-        <v>24</v>
+      <c r="B34" s="59" t="s">
+        <v>23</v>
       </c>
       <c r="C34" s="23">
         <f t="shared" si="4"/>
@@ -2263,8 +2263,8 @@
       <c r="X34" s="9"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2294,11 +2294,11 @@
       <c r="X35" s="16"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="55">
+      <c r="A36" s="59">
         <v>3.3</v>
       </c>
-      <c r="B36" s="55" t="s">
-        <v>31</v>
+      <c r="B36" s="59" t="s">
+        <v>30</v>
       </c>
       <c r="C36" s="23">
         <f t="shared" si="4"/>
@@ -2331,8 +2331,8 @@
       <c r="X36" s="9"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2362,11 +2362,11 @@
       <c r="X37" s="16"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="55">
+      <c r="A38" s="59">
         <v>3.4</v>
       </c>
-      <c r="B38" s="55" t="s">
-        <v>35</v>
+      <c r="B38" s="59" t="s">
+        <v>34</v>
       </c>
       <c r="C38" s="23">
         <f t="shared" ref="C38:C39" si="5">SUM(E38:X38)</f>
@@ -2399,8 +2399,8 @@
       <c r="X38" s="9"/>
     </row>
     <row r="39" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2466,8 +2466,8 @@
       <c r="A41" s="57">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B41" s="55" t="s">
-        <v>20</v>
+      <c r="B41" s="59" t="s">
+        <v>35</v>
       </c>
       <c r="C41" s="23">
         <f>SUM(E41:X41)</f>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="42" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="58"/>
-      <c r="B42" s="56"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="24">
         <f>SUM(E42:X42)</f>
         <v>0</v>
@@ -2584,66 +2584,109 @@
     <row r="44" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="50"/>
       <c r="B44" s="51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44" s="54">
         <f>SUM(C43,C40,C31,C18)</f>
         <v>0</v>
       </c>
       <c r="D44" s="52"/>
-      <c r="E44" s="65">
+      <c r="E44" s="55">
         <f>SUM(E5,F5,E7,F7,E9,F9,E11,F11,E13,F13,E15,F15,E17,F17,E20,F20,E22,F22,E24,F24,E26,F26,E28,F28,E30,F30,E33,F33,E35,F35,E37,F37,E39,F39,E42,F42)</f>
         <v>0</v>
       </c>
-      <c r="F44" s="66"/>
-      <c r="G44" s="65">
+      <c r="F44" s="56"/>
+      <c r="G44" s="55">
         <f>SUM(G5,H5,G7,H7,G9,H9,G11,H11,G13,H13,G15,H15,G17,H17,G20,H20,G22,H22,G24,H24,G26,H26,G28,H28,G30,H30,G33,H33,G35,H35,G37,H37,G39,H39,G42,H42)</f>
         <v>0</v>
       </c>
-      <c r="H44" s="66"/>
-      <c r="I44" s="65">
+      <c r="H44" s="56"/>
+      <c r="I44" s="55">
         <f>SUM(I5,J5,I7,J7,I9,J9,I11,J11,I13,J13,I15,J15,I17,J17,I20,J20,I22,J22,I24,J24,I26,J26,I28,J28,I30,J30,I33,J33,I35,J35,I37,J37,I39,J39,I42,J42)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="66"/>
-      <c r="K44" s="65">
+      <c r="J44" s="56"/>
+      <c r="K44" s="55">
         <f>SUM(K5,L5,K7,L7,K9,L9,K11,L11,K13,L13,K15,L15,K17,L17,K20,L20,K22,L22,K24,L24,K26,L26,K28,L28,K30,L30,K33,L33,K35,L35,K37,L37,K39,L39,K42,L42)</f>
         <v>0</v>
       </c>
-      <c r="L44" s="66"/>
-      <c r="M44" s="65">
+      <c r="L44" s="56"/>
+      <c r="M44" s="55">
         <f>SUM(M5,N5,M7,N7,M9,N9,M11,N11,M13,N13,M15,N15,M17,N17,M20,N20,M22,N22,M24,N24,M26,N26,M28,N28,M30,N30,M33,N33,M35,N35,M37,N37,M39,N39,M42,N42)</f>
         <v>0</v>
       </c>
-      <c r="N44" s="66"/>
-      <c r="O44" s="65">
+      <c r="N44" s="56"/>
+      <c r="O44" s="55">
         <f>SUM(O5,P5,O7,P7,O9,P9,O11,P11,O13,P13,O15,P15,O17,P17,O20,P20,O22,P22,O24,P24,O26,P26,O28,P28,O30,P30,O33,P33,O35,P35,O37,P37,O39,P39,O42,P42)</f>
         <v>0</v>
       </c>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="65">
+      <c r="P44" s="56"/>
+      <c r="Q44" s="55">
         <f>SUM(Q5,R5,Q7,R7,Q9,R9,Q11,R11,Q13,R13,Q15,R15,Q17,R17,Q20,R20,Q22,R22,Q24,R24,Q26,R26,Q28,R28,Q30,R30,Q33,R33,Q35,R35,Q37,R37,Q39,R39,Q42,R42)</f>
         <v>0</v>
       </c>
-      <c r="R44" s="66"/>
-      <c r="S44" s="65">
+      <c r="R44" s="56"/>
+      <c r="S44" s="55">
         <f>SUM(S5,T5,S7,T7,S9,T9,S11,T11,S13,T13,S15,T15,S17,T17,S20,T20,S22,T22,S24,T24,S26,T26,S28,T28,S30,T30,S33,T33,S35,T35,S37,T37,S39,T39,S42,T42)</f>
         <v>0</v>
       </c>
-      <c r="T44" s="66"/>
-      <c r="U44" s="65">
+      <c r="T44" s="56"/>
+      <c r="U44" s="55">
         <f>SUM(U5,V5,U7,V7,U9,V9,U11,V11,U13,V13,U15,V15,U17,V17,U20,V20,U22,V22,U24,V24,U26,V26,U28,V28,U30,V30,U33,V33,U35,V35,U37,V37,U39,V39,U42,V42)</f>
         <v>0</v>
       </c>
-      <c r="V44" s="66"/>
-      <c r="W44" s="65">
+      <c r="V44" s="56"/>
+      <c r="W44" s="55">
         <f>SUM(W5,X5,W7,X7,W9,X9,W11,X11,W13,X13,W15,X15,W17,X17,W20,X20,W22,X22,W24,X24,W26,X26,W28,X28,W30,X30,W33,X33,W35,X35,W37,X37,W39,X39,W42,X42)</f>
         <v>0</v>
       </c>
-      <c r="X44" s="66"/>
+      <c r="X44" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="Q1:R2"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="U1:V2"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="W1:X2"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="O1:P2"/>
     <mergeCell ref="U44:V44"/>
     <mergeCell ref="W44:X44"/>
     <mergeCell ref="A27:A28"/>
@@ -2660,49 +2703,6 @@
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
-    <mergeCell ref="W1:X2"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="O1:P2"/>
-    <mergeCell ref="Q1:R2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="U1:V2"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
